--- a/材料/总决赛/制图/制表.xlsx
+++ b/材料/总决赛/制图/制表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大学\大一下\Hydra-II\材料\总决赛\制图\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB09927-411F-4FD1-BDBC-4AAB3D1EF2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A9E177-6AE2-420B-8F6F-DEC376E6960E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>理论值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,10 @@
   </si>
   <si>
     <t>Kbits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +135,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -552,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -599,19 +611,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -653,22 +665,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -677,12 +683,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -701,15 +701,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -719,18 +710,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -740,16 +719,43 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1183,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47B875E-6996-4F0A-A724-C10D56592B3E}">
   <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1197,68 +1203,70 @@
   <sheetData>
     <row r="1" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="38"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="39"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="21" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="57" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="38">
         <v>16</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="51">
         <v>2048</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="40">
         <v>32</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="44">
         <f>C4*D4*E4/1024</f>
         <v>1024</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="46">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="49">
         <v>11</v>
       </c>
       <c r="D5" s="14">
         <v>2048</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="50">
         <v>32</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="48">
         <f t="shared" ref="F5:F7" si="0">C5*D5*E5/1024</f>
         <v>704</v>
       </c>
@@ -1267,40 +1275,40 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="39">
         <v>8</v>
       </c>
       <c r="D6" s="10">
         <v>2048</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="41">
         <v>32</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="45">
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="47">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="49">
         <v>16</v>
       </c>
       <c r="D7" s="14">
         <v>64</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="50">
         <v>16</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="48">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1309,7 +1317,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="62" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1318,14 +1326,14 @@
       <c r="D8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="43">
         <f>F4+F5+F6+F7</f>
         <v>2256</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="58">
         <f>G4+G5+G6+G7</f>
         <v>88</v>
       </c>
